--- a/variable description.xlsx
+++ b/variable description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nimisha/Desktop/Capstone/Project 3 healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nimisha/Desktop/Capstone/projecct_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F62463-1744-1644-9B99-9B7F5A05B663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C7FA1-86CA-C841-A01E-19EFCD85129A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{3598E424-4A06-4749-99FA-7FF359102316}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15920" xr2:uid="{CD0275DA-308A-A24A-9030-AD20D6AC76A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,103 +33,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">age </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> age in years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (1 = male; 0 = female)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cp </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chest pain type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trestbps </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> resting blood pressure (in mm Hg on admission to the hospital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chol </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> serum cholestoral in mg/dl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fbs </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (fasting blood sugar &gt; 120 mg/dl) (1 = true; 0 = false)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restecg </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> resting electrocardiographic results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thalach </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maximum heart rate achieved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exang </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exercise induced angina (1 = yes; 0 = no)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oldpeak </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ST depression induced by exercise relative to rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the slope of the peak exercise ST segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> number of major vessels (0-3) colored by flourosopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thal </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 = normal; 6 = fixed defect; 7 = reversable defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 or 0</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>Restaurant ID</t>
+  </si>
+  <si>
+    <t>Identification Number</t>
+  </si>
+  <si>
+    <t>Restaurant Name</t>
+  </si>
+  <si>
+    <t>Name Of the Restaurant</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>City Name of the Restaurant</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Shot Address Of the Restaurant</t>
+  </si>
+  <si>
+    <t>Locality Verbose</t>
+  </si>
+  <si>
+    <t>Long Address of the Restaurant</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Cuisines</t>
+  </si>
+  <si>
+    <t>Types Of Cuisines Served</t>
+  </si>
+  <si>
+    <t>Average Cost for two</t>
+  </si>
+  <si>
+    <t>Average Cost if two people visit the Restaurant</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Has Table booking</t>
+  </si>
+  <si>
+    <t>Can we book tables in Restaurant? Yes/No</t>
+  </si>
+  <si>
+    <t>Has Online delivery</t>
+  </si>
+  <si>
+    <t>Can we have online delivery ? Yes/No</t>
+  </si>
+  <si>
+    <t>Price range</t>
+  </si>
+  <si>
+    <t>Categorized price between 1 -4</t>
+  </si>
+  <si>
+    <t>Aggregate rating</t>
+  </si>
+  <si>
+    <t>Categorizing ratings between 1-5 </t>
+  </si>
+  <si>
+    <t>Rating color</t>
+  </si>
+  <si>
+    <t>Different colors representing Customer Rating</t>
+  </si>
+  <si>
+    <t>Rating text</t>
+  </si>
+  <si>
+    <t>Different Rating like Excellent, Very Good ,Good, Avg., Poor, Not Rated</t>
+  </si>
+  <si>
+    <t>Votes</t>
+  </si>
+  <si>
+    <t>No.Of Votes received by restaurant from customers.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Detailed address of the restaurant</t>
+  </si>
+  <si>
+    <t>Country code</t>
+  </si>
+  <si>
+    <t>Local currency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,14 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times Roman"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,13 +190,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -189,12 +208,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -207,10 +224,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -222,37 +239,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -264,15 +251,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,138 +571,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B99A253-CF5D-2748-A6CE-67A9280D1888}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3C923F-EE28-4547-A0E6-1560A0AE29D9}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="75.83203125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="19" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19">
-      <c r="A12" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="18">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="19">
-      <c r="A13" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="18">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="19">
-      <c r="A14" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" thickBot="1">
-      <c r="A15" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
